--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C6C686-F9DA-4A11-B096-EF2CBAAEFA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268B2AA-D621-4494-8552-07FAB36D6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Module–1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Module–2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t xml:space="preserve"> What is software testing? 
 Testing is the process of evaluating a system or its 
@@ -140,12 +143,423 @@
 Can be difficult to scale for large projects.
  </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test scenarios of INSTAGRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User Registration and Login
+Profile Management
+Posting Media
+Interaction with Posts
+Direct Messaging
+Notifications
+Stories
+Explore and Search
+Reporting and Blocking Users
+Instagram Shopping
+IGTV
+Reels
+Multi-Account Management
+Notifications Management
+Live Streaming
+Two-Factor Authentication
+Accessibility Features
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test scenarios for LinkedIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+User Registration and Login
+Profile Management
+Networking
+Job Applications
+Content Sharing
+Messaging
+Notifications
+Recommendations
+LinkedIn Learning
+Endorsements
+Profile Views
+Groups
+Settings and Privacy
+Content Moderation
+Job Alerts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Module–2(Manual Testing)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)What is Exploratory Testing?
+Exploratory testing is a software testing technique where test design, test execution, and learning occur simultaneously. It is an unscripted, adaptive approach that allows testers to investigate and learn about the software dynamically, often revealing defects that might be missed by more structured testing methods. The effectiveness of exploratory testing relies heavily on the tester's skills, experience, and intuition.
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) What is traceability matrix?
+A traceability matrix is a document that links requirements to their corresponding test cases, ensuring that all requirements are tested and helping track the progress and coverage of the testing process. It helps verify that all requirements are met and can trace the impact of changes in the project.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) What is Boundary value testing?
+Boundary value testing is a software testing technique that focuses on testing the values at the boundaries of input domains. This method is based on the observation that errors often occur at the edges of input ranges rather than in the middle. By testing these boundary values, testers aim to uncover defects that might not be detected with other testing approaches.
+Example of Boundary Value Testing
+For an input field that accepts values from 1 to 10:
+Valid Boundary Values: 1, 10
+Invalid Boundary Values: 0, 11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) What is Equivalence partitioning testing?
+Equivalence partitioning (EP) testing is a software testing technique that divides input data into partitions or classes that are expected to be treated similarly by the software. The goal is to reduce the number of test cases while maintaining effective coverage by selecting representative values from each partition. This method assumes that if one test case in a partition passes, all other cases in the same partition are likely to pass as well, and vice versa.
+Example of Equivalence Partitioning
+Consider a function that accepts an integer input between 1 and 100:
+Valid Equivalence Class: [1-100]
+Invalid Equivalence Classes: [-∞ to 0] and [101 to ∞]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) What is Integration testing?
+Integration testing is a software testing process where individual units or components of a system are combined and tested as a group to identify any issues in their interactions and ensure they work together correctly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) What determines the level of risk?
+A common tool used to evaluate risk levels is a risk assessment matrix, which plots the likelihood against the impact to categorize the level of risk as low, medium, or high.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) What is Alpha testing?
+Alpha testing is a type of software testing performed by internal staff and selected users within the organization before the software is released to external users. It is typically conducted in the development environment or a simulated environment that closely mimics the actual production environment.
+Key Characteristics of Alpha Testing
+1)Early Testing: 
+2)Internal Testing: 
+3)Controlled Environment: 
+4)Focus Areas:
+ Functionality: 
+ Usability: 
+ Reliability: 
+5)Feedback Loop: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8) What is beta testing?
+Beta testing is a type of software testing carried out by a selected group of external users in a real-world environment just before the official release of the software. This phase allows developers to gather feedback on the product's usability, performance, reliability, and functionality from end-users who represent the software's target audience.
+Example
+A software company developing a new video editing application conducts beta testing by inviting a group of external users, including professional videographers and amateur filmmakers. These users install and use the beta version of the software to edit videos, provide feedback on features, report any bugs or crashes encountered, and suggest improvements to enhance usability and performance.
+In summary, beta testing plays a crucial role in the software development lifecycle by validating the software in real-world scenarios, gathering user feedback, and ensuring a smoother and more successful product launch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) What is component testing?
+Component testing, also known as unit testing or module testing, is a software testing technique where individual components or modules of a software application are tested in isolation from the rest of the system. The purpose is to validate that each unit of the software performs as designed and meets its specification.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) What isfunctional system testing?
+Functional system testing is a type of software testing that evaluates the functionality of a system based on its specifications. It verifies that the system behaves according to its intended design and meets the functional requirements specified in the software requirements specification (SRS) or user stories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) What is Non-Functional Testing?
+Non-functional testing is a type of software testing that verifies the non-functional aspects of a system, such as performance, usability, reliability, scalability, and security. Unlike functional testing, which focuses on specific functional requirements, non-functional testing evaluates how well the system operates under various conditions and stresses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12) What is GUI Testing?
+GUI (Graphical User Interface) testing is a type of software testing that focuses on the graphical interface of an application. The purpose of GUI testing is to ensure that the graphical elements (such as windows, menus, buttons, icons) and user interactions (such as mouse clicks, keyboard inputs) function correctly according to the specified requirements.
+GUI Testing Techniques
+Manual Testing: Testers interact directly with the application's graphical interface, performing actions and validating responses manually.
+Automated Testing: Uses GUI testing tools to automate test scripts that simulate user interactions (e.g., clicking buttons, entering text) and verify expected behaviors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13) What is Adhoc testing?
+Ad hoc testing is an informal and improvisational approach to software testing that does not follow any predefined test cases or test plans. Testers perform ad hoc testing based on their intuition, experience, and domain knowledge, focusing on exploring the software system without adhering to specific test scripts or procedures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14) What is load testing?
+Load testing is a type of performance testing that evaluates the behavior of a software application under specific expected load conditions. The goal of load testing is to measure the system's performance and stability when subjected to a typical or peak workload, such as a large number of simultaneous users accessing the application concurrently.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15) What is stress Testing?
+Stress testing is a type of software testing that evaluates the stability and robustness of a system beyond its normal operational capacity, under extreme conditions or peak loads. The purpose of stress testing is to identify the breaking point or failure threshold of the system and understand how it behaves under intense stress.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16) What is white box testing and list the types of white box testing?
+White box testing, also known as structural testing or glass box testing, is a software testing technique that examines the internal structure and workings of a system, focusing on the code and logic implemented within the software. Testers use knowledge of the internal structure of the software to design test cases that ensure all branches of code are executed and all logical paths are tested.
+1)Unit Testing
+2)Integration Testing
+3)System Testing:
+4)Component Testing:(unit Testing)
+5)Path Testing:
+6)Statement Testing (Coverage): 
+7)Decision Testing (Coverage): 
+8)Branch Testing (Coverage): 
+</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Users should be able to register a new account by providing necessary information such as username, email address or phone number, and password.</t>
+  </si>
+  <si>
+    <t>HLR-</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Applicable
+Roles 
+</t>
+  </si>
+  <si>
+    <t>New User Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>after the Registraton user can login with a phone numer, id password,email</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>user can change the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Authentication
+</t>
+  </si>
+  <si>
+    <t>The login page must authenticate users using their registered email address or phone number and password. It should also support login via Facebook account linkage.</t>
+  </si>
+  <si>
+    <t>Authentication (2FA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users should have the option to enable two-factor authentication for additional security. Upon login, a verification code should be sent to the user’s registered phone number.
+</t>
+  </si>
+  <si>
+    <t>Social Media Integration</t>
+  </si>
+  <si>
+    <t>Users should be able to log in or sign up using their Facebook account. This should be done securely, with appropriate permissions requested from the user.</t>
+  </si>
+  <si>
+    <t>Login Error Handling</t>
+  </si>
+  <si>
+    <t>The system should provide appropriate error messages for invalid login attempts, such as incorrect password or unregistered email/phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Privacy and Security
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page must adhere to privacy and security standards, ensuring that user credentials are encrypted and securely transmitted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instaram login page &amp;Facebook Login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) What is black box testing? What are the different black box testing techniques?
+Black box testing is a software testing technique that focuses on the functional requirements of a software application without considering the internal code structure, implementation details, or logic. Testers conduct black box testing based solely on the software's external specifications, user requirements, and expected behavior.
+Different Black Box Testing Techniques
+1)Equivalence Partitioning:
+Divides the input data into partitions of valid and invalid classes.
+Ensures that test cases cover representative values from each partition.
+Reduces the number of test cases while maintaining test coverage.
+2)Boundary Value Analysis (BVA):
+Tests boundaries or limits of input values.
+Identifies errors at boundaries more effectively than testing within the valid ranges.
+Includes tests for minimum, just above minimum, just below maximum, and maximum values.
+3)Decision Table Testing:
+Tests combinations of inputs that result in different actions or decisions.
+Represents complex business rules or logical conditions using decision tables.
+Ensures all possible combinations of conditions are tested.
+4)State Transition Testing:
+Tests transitions between different states or modes of the application.
+Uses state diagrams to identify valid and invalid state transitions.
+Ensures that all state changes are tested, including transitions and actions triggered by state changes.
+5)Pairwise Testing (Combinatorial Testing):
+Tests interactions between pairs of input parameters.
+Reduces the number of test cases compared to exhaustive testing while achieving high coverage.
+Useful for testing systems with a large number of input parameters.
+6)Error Guessing:
+Uses testers' experience, intuition, and knowledge of common errors to identify potential defects.
+Based on past defects or issues encountered in similar systems or functionalities.
+Informal and subjective, relying on testers' expertise.
+7)Exploratory Testing:
+Tests the software dynamically and interactively.
+Testers explore the application without predefined test cases, focusing on learning, investigation, and discovery.
+Encourages creativity and finds defects that may not be identified through scripted tests.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18) Mention what are the categories of defects?
+Defects in software development can be categorized into several types based on different criteria. Here are the common categories of defects:
+1. Functional Defects: These defects arise when the software does not behave according to the specified functional requirements. Examples include incorrect calculations, missing features, or incorrect data processing.
+2. Performance Defects: Performance defects impact the system's speed, responsiveness, or resource utilization. Examples include slow response times, high memory consumption, or inefficient database queries.
+3. Compatibility Defects: Compatibility defects occur when the software fails to function correctly or display properly across different environments, such as various operating systems, browsers, or devices.
+4. Usability Defects: Usability defects affect the user experience by making the software difficult to understand, navigate, or use efficiently. Examples include unclear user interfaces, confusing workflows, or inconsistent design elements.
+5. Security Defects: Security defects expose vulnerabilities that could be exploited by attackers to compromise the confidentiality, integrity, or availability of the software or its data. Examples include SQL injection, cross-site scripting (XSS), or improper access control.
+6. Reliability Defects: Reliability defects impact the stability and availability of the software under normal operating conditions. Examples include crashes, freezes, or unexpected shutdowns.
+7. Interface Defects: Interface defects occur when there are issues in the interactions between different software components, systems, or external interfaces. Examples include data format mismatches or communication protocol errors.
+8. Documentation Defects: Documentation defects involve errors or inconsistencies in documentation artifacts such as user manuals, help guides, or system documentation. Examples include outdated information, unclear instructions, or missing documentation for new features.
+9. Regression Defects: Regression defects occur when a previously working feature or functionality stops functioning as expected after changes or updates are made elsewhere in the software. These defects often result from unintended side effects or dependencies between different parts of the system.
+10. Data Defects: Data defects involve issues related to the handling, processing, or storage of data within the software. Examples include data corruption, data loss, or incorrect data validation.
+Each category of defect requires careful identification, classification, and resolution during the software development lifecycle to ensure the overall quality, reliability, and security of the software product. Comprehensive testing and quality assurance practices are essential to minimize and mitigate the impact of defects on the software's functionality and user satisfaction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19) Mention what bigbang testing is?
+Big Bang Testing is a software testing approach where all or most of the modules or components of a software system are integrated simultaneously and tested as a whole. This approach is typically used when individual modules or components of the system have been developed and tested independently, and now they are ready to be integrated to form the complete system.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20) What is the purpose of exit criteria?
+Exit criteria in software testing define the conditions or criteria that must be met in order to complete a testing phase, release a software product, or proceed to the next phase of the software development lifecycle. These criteria serve several important purposes:
+1. Quality Assurance: Exit criteria ensure that the software has been thoroughly tested and meets predefined quality standards before it is released or promoted to the next stage. They help in validating that the software is ready for deployment or further development.
+2. Risk Management: Exit criteria help in managing project risks by providing clear guidelines on when testing activities can be concluded. They help teams assess and mitigate risks associated with software defects or issues that could impact deployment or user acceptance.
+3. Decision Making: Exit criteria provide a basis for making informed decisions about the readiness of the software. Stakeholders can use these criteria to evaluate whether the software meets business requirements, technical specifications, and user expectations before making decisions on release or continuation.
+4. Progress Tracking: Exit criteria serve as checkpoints during the testing process, allowing teams to track progress and ensure that testing objectives are being achieved. They provide transparency and accountability in testing activities.
+5. Continuous Improvement: By defining exit criteria, teams can identify areas for improvement in testing processes, methodologies, and quality standards. They enable retrospective analysis and lessons learned to enhance future testing efforts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21) When should "Regression Testing" be performed?
+Regression testing should be performed whenever there are changes made to the software application. The primary purpose of regression testing is to ensure that recent code changes or modifications have not adversely affected the existing functionality of the software. Here are specific scenarios when regression testing should be conducted:
+1. After Code Changes: Whenever new code is added, modified, or removed within the software application, regression testing should be performed to verify that these changes have not introduced new defects or caused unintended side effects.
+2. After Bug Fixes: Once defects or bugs have been fixed, regression testing ensures that the corrections have been implemented successfully without impacting other parts of the software.
+3. After System Upgrades: When there are updates or upgrades to the underlying system components, frameworks, libraries, or dependencies used by the software, regression testing ensures compatibility and functionality with the new environment.
+4. After Configuration Changes: Changes in configuration settings, database schema updates, or environment variables can potentially impact the software's behavior. Regression testing helps verify that these changes do not disrupt existing functionality.
+5. Periodically: Even in the absence of specific changes, regression testing should be performed periodically as part of ongoing maintenance to detect any unexpected regressions or deteriorations in software performance over time.
+6. Before Release: Prior to releasing a new version or update of the software to production or to end-users, comprehensive regression testing is essential to confirm that all previously working features and functionalities continue to operate as expected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22) What is 7 key principles? Explain in detail?
+The "7 key principles" you're referring to are likely related to software testing and are often associated with the International Software Testing Qualifications Board (ISTQB) Foundation Level certification syllabus. These principles provide foundational concepts and guidelines for effective software testing practices. Here are the 7 key principles of software testing explained in detail:
+1. Testing Shows Presence of Defects:
+   - Principle: Testing can never prove the absence of defects, but it can show that defects are present in the software.
+   - Explanation: Software testing is aimed at identifying defects or discrepancies between expected and actual outcomes. Test cases are designed to reveal defects, errors, or inconsistencies in the software under test. However, passing test cases do not guarantee defect-free software; they only indicate that no defects were found in those specific conditions.
+2. Exhaustive Testing is Impossible**:
+   - Principle: It is impossible to test all possible scenarios, inputs, and conditions within a software application.
+   - Explanation: Software systems are complex, with a vast number of possible inputs, interactions, and paths. Complete testing of all possible combinations and scenarios would require an impractical amount of time and resources. Therefore, testing efforts should be focused on high-risk areas, critical functionalities, and typical user interactions based on risk analysis and prioritization.
+3. Early Testing:
+   - Principle: Testing activities should start as early as possible in the software development lifecycle.
+   - Explanation: Early testing helps in identifying defects and issues when they are less costly to fix. Testing early can prevent defects from propagating into subsequent phases of development, reducing rework and overall project costs. It also facilitates early feedback, allowing for timely adjustments to requirements, design, and implementation.
+4. Defect Clustering:
+   -Principle: A small number of modules typically contain most of the defects discovered.
+   - Explanation: Empirical studies have shown that defects tend to cluster in specific modules or components of a software system. By focusing testing efforts on these high-risk areas and critical modules, testers can prioritize their activities to maximize defect detection and minimize potential impacts on the software's functionality and quality.
+5. Pesticide Paradox:
+   - Principle: Repeating the same tests over and over again will eventually cease to find new defects.
+   - Explanation: If the same set of tests is repeated without variation, it becomes less effective in finding new defects over time. To combat this, test cases should be regularly reviewed, updated, and supplemented with new tests to target different aspects of the software and expose previously undetected defects.
+6. Testing is Context Dependent:
+   - Principle: Testing approaches and techniques should be adapted based on the context of the project, including business objectives, technical environment, and stakeholder needs.
+   - Explanation: There is no one-size-fits-all approach to testing. The effectiveness of testing strategies depends on the specific context of the software project, such as its complexity, criticality, regulatory requirements, and development methodology. Testing should be tailored to address specific risks and challenges unique to each project.
+7. Absence-of-Errors Fallacy:
+ Principle: Finding and fixing defects does not necessarily mean the software is ready for release.
+   Explanation: Even if all identified defects are fixed, it does not guarantee that the software is free of all potential issues or meets all user expectations. Testing should focus not only on finding defects but also on validating that the software meets its functional and non-functional requirements, performs reliably under expected conditions, and satisfies user needs and expectations.
+These 7 key principles provide a fundamental framework for understanding the goals, challenges, and best practices in software testing. They guide testers in planning, designing, executing, and evaluating testing activities to ensure the delivery of high-quality software products that meet business objectives and user requirements.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23) Difference between QA v/s QC v/s Tester
+The terms QA (Quality Assurance), QC (Quality Control), and Tester are often used in the context of software development and testing, but they represent distinct roles and activities within the overall process of ensuring software quality. Here’s a breakdown of the differences:
+Quality Assurance (QA):
+1. Definition: QA refers to the systematic process of ensuring that the software development process is designed, implemented, and executed in accordance with defined standards, procedures, and guidelines.
+2. Focus: QA focuses on preventing defects and issues by establishing processes, standards, and methodologies that promote quality throughout the software development lifecycle (SDLC).
+3. Responsibilities:
+   - Establishing quality standards, processes, and methodologies.
+   - Defining and implementing quality assurance activities and metrics.
+   - Conducting reviews, audits, and inspections to ensure compliance with standards.
+   - Identifying areas for process improvement and optimization.
+4. Goal: The primary goal of QA is to build quality into the software development process from the beginning to ensure that the final product meets quality standards, meets user requirements, and satisfies stakeholder expectations.
+ Quality Control (QC):
+1. Definition: QC involves the activities and techniques used to verify and validate that the software product meets specified requirements and adheres to quality standards.
+2. Focus: QC focuses on identifying defects and issues through testing and inspection activities, aiming to detect and correct deviations from expected quality.
+3. Responsibilities:
+   - Planning, designing, and executing testing activities (functional and non-functional) to validate software functionality.
+   - Conducting reviews and inspections to identify defects, inconsistencies, and non-conformances.
+   - Performing static and dynamic testing to verify software behavior and performance.
+4. Goal: The main goal of QC is to ensure that defects and issues are identified and resolved before the software product is released to users, thereby improving the overall reliability, functionality, and usability of the software.
+ Tester:
+1. Definition: A tester is an individual responsible for performing various testing activities to identify defects, verify functionality, and ensure the quality of the software product.
+2. Focus: Testers are directly involved in executing test cases, reporting defects, and validating software functionality against defined requirements and specifications.
+3. Responsibilities:
+   - Developing and executing test cases based on test plans and test strategies.
+   - Identifying, documenting, and prioritizing defects found during testing.
+   - Collaborating with developers, analysts, and stakeholders to understand requirements and ensure test coverage.
+   - Participating in test automation, performance testing, and regression testing activities.
+4. Skills and Expertise: Testers require a combination of technical skills (knowledge of testing tools, test automation, etc.) and domain-specific knowledge (understanding of business requirements, user expectations) to effectively carry out testing activities.
+ Key Differences:
+- Focus: QA focuses on process improvement and prevention of defects, QC focuses on defect detection and correction, while testers execute testing activities and validate software functionality.
+- Scope: QA and QC are broader in scope, encompassing overall process management and quality verification, whereas testing is more specific to validating software behavior and performance.
+- Role and Responsibilities: QA and QC involve planning, designing, and implementing quality-related activities, while testers are primarily involved in executing tests, identifying defects, and ensuring software meets quality standards.
+In summary, QA, QC, and testers play complementary roles in the software development lifecycle, each contributing to ensuring the delivery of high-quality software products. Effective collaboration and communication among QA, QC, and testing teams are essential for achieving software quality objectives and meeting user expectations.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +567,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Droid Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,11 +619,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,93 +947,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226D4F7-192C-438B-B2BE-4E37E9322E8F}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="101.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="72">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="86.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="72">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="86.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="72">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="230.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="72">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="86.4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="72">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="100.8">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="129.6">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="144">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="144">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="115.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="115.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="273.60000000000002">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04453A08-0239-4A10-A9EA-68749395E77F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.109375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D126BAFA-3C60-4EF6-B5B6-FCCA4B673AAD}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="204.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.8">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="115.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="100.8">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="201.6">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="201.6">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="100.8">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="86.4">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="244.8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="259.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="115.2">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="115.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="100.8">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="216">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="115.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="115.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="115.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="244.8">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.6">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.6">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="115.2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="403.2">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3BBE85-A9C1-468F-9171-963C3BE4D7B5}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="138.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="55.2">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="43.2">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268B2AA-D621-4494-8552-07FAB36D6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F2C0D-C47C-4A84-A92B-315E9C8E0AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Module–1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Module–2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Test_Secenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Module–2" sheetId="3" r:id="rId4"/>
+    <sheet name="HLR" sheetId="7" r:id="rId5"/>
+    <sheet name="TestCase" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
     <t xml:space="preserve"> What is software testing? 
 Testing is the process of evaluating a system or its 
@@ -351,11 +353,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">   Applicable
-Roles 
-</t>
-  </si>
-  <si>
     <t>New User Registration</t>
   </si>
   <si>
@@ -405,154 +402,678 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Instaram login page &amp;Facebook Login page </t>
+  </si>
+  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Instaram login page &amp;Facebook Login page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
+    <t xml:space="preserve">19) Mention what bigbang testing is?
+Big Bang Testing is a software testing approach where all or most of the modules or components of a software system are integrated simultaneously and tested as a whole. This approach is typically used when individual modules or components of the system have been developed and tested independently, and now they are ready to be integrated to form the complete system.
+</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TS01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login Functionality
+</t>
+  </si>
+  <si>
+    <t>TC_1.1</t>
+  </si>
+  <si>
+    <t>TC_1.2</t>
+  </si>
+  <si>
+    <t>TC_1.3</t>
+  </si>
+  <si>
+    <t>TC_1.4</t>
+  </si>
+  <si>
+    <t>TC_1.5</t>
+  </si>
+  <si>
+    <t>TC_1.6</t>
+  </si>
+  <si>
+    <t>TC_1.7</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty Username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout Functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password Recovery </t>
+  </si>
+  <si>
+    <t>Password Recovery Invalid Email</t>
+  </si>
+  <si>
+    <t>User is on the login page</t>
+  </si>
+  <si>
+    <t>Enter valid username and password, click login</t>
+  </si>
+  <si>
+    <t>Enter invalid username and password, click login</t>
+  </si>
+  <si>
+    <t>Leave username field empty, enter password, click login</t>
+  </si>
+  <si>
+    <t>Enter username, leave password field empty, click login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the logout button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Forgot Password", enter registered email, click submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Forgot Password", enter unregistered email, click submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: validUser, Password: validPass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: invalidUser, Password: invalidPass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: (empty), Password: validPass </t>
+  </si>
+  <si>
+    <t>Username: validUser, Password: (empty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: registeredEmail@example.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: unregisteredEmail@example.com </t>
+  </si>
+  <si>
+    <t>User is redirected to the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message "Invalid credentials" is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message "Username is required" is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message "Password is required" is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged out and redirected to the login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password recovery instructions are sent to the registered email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message "Email not found" is displayed </t>
+  </si>
+  <si>
+    <t>Error message "Username is required" is displayed</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">17) What is black box testing? What are the different black box testing techniques?
-Black box testing is a software testing technique that focuses on the functional requirements of a software application without considering the internal code structure, implementation details, or logic. Testers conduct black box testing based solely on the software's external specifications, user requirements, and expected behavior.
+Black box testing is a software testing technique that focuses on the functional requirements of a software 
+application without considering the internal code structure, implementation details, or logic. Testers
+ conduct black box testing based solely on the software's external specifications, user requirements, and expected behavior.
 Different Black Box Testing Techniques
 1)Equivalence Partitioning:
-Divides the input data into partitions of valid and invalid classes.
-Ensures that test cases cover representative values from each partition.
-Reduces the number of test cases while maintaining test coverage.
 2)Boundary Value Analysis (BVA):
-Tests boundaries or limits of input values.
-Identifies errors at boundaries more effectively than testing within the valid ranges.
-Includes tests for minimum, just above minimum, just below maximum, and maximum values.
 3)Decision Table Testing:
-Tests combinations of inputs that result in different actions or decisions.
-Represents complex business rules or logical conditions using decision tables.
-Ensures all possible combinations of conditions are tested.
 4)State Transition Testing:
-Tests transitions between different states or modes of the application.
-Uses state diagrams to identify valid and invalid state transitions.
-Ensures that all state changes are tested, including transitions and actions triggered by state changes.
 5)Pairwise Testing (Combinatorial Testing):
-Tests interactions between pairs of input parameters.
-Reduces the number of test cases compared to exhaustive testing while achieving high coverage.
-Useful for testing systems with a large number of input parameters.
 6)Error Guessing:
-Uses testers' experience, intuition, and knowledge of common errors to identify potential defects.
-Based on past defects or issues encountered in similar systems or functionalities.
-Informal and subjective, relying on testers' expertise.
 7)Exploratory Testing:
-Tests the software dynamically and interactively.
-Testers explore the application without predefined test cases, focusing on learning, investigation, and discovery.
-Encourages creativity and finds defects that may not be identified through scripted tests.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18) Mention what are the categories of defects?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+18) Mention what are the categories of defects?
 Defects in software development can be categorized into several types based on different criteria. Here are the common categories of defects:
-1. Functional Defects: These defects arise when the software does not behave according to the specified functional requirements. Examples include incorrect calculations, missing features, or incorrect data processing.
-2. Performance Defects: Performance defects impact the system's speed, responsiveness, or resource utilization. Examples include slow response times, high memory consumption, or inefficient database queries.
-3. Compatibility Defects: Compatibility defects occur when the software fails to function correctly or display properly across different environments, such as various operating systems, browsers, or devices.
-4. Usability Defects: Usability defects affect the user experience by making the software difficult to understand, navigate, or use efficiently. Examples include unclear user interfaces, confusing workflows, or inconsistent design elements.
-5. Security Defects: Security defects expose vulnerabilities that could be exploited by attackers to compromise the confidentiality, integrity, or availability of the software or its data. Examples include SQL injection, cross-site scripting (XSS), or improper access control.
-6. Reliability Defects: Reliability defects impact the stability and availability of the software under normal operating conditions. Examples include crashes, freezes, or unexpected shutdowns.
-7. Interface Defects: Interface defects occur when there are issues in the interactions between different software components, systems, or external interfaces. Examples include data format mismatches or communication protocol errors.
-8. Documentation Defects: Documentation defects involve errors or inconsistencies in documentation artifacts such as user manuals, help guides, or system documentation. Examples include outdated information, unclear instructions, or missing documentation for new features.
-9. Regression Defects: Regression defects occur when a previously working feature or functionality stops functioning as expected after changes or updates are made elsewhere in the software. These defects often result from unintended side effects or dependencies between different parts of the system.
-10. Data Defects: Data defects involve issues related to the handling, processing, or storage of data within the software. Examples include data corruption, data loss, or incorrect data validation.
-Each category of defect requires careful identification, classification, and resolution during the software development lifecycle to ensure the overall quality, reliability, and security of the software product. Comprehensive testing and quality assurance practices are essential to minimize and mitigate the impact of defects on the software's functionality and user satisfaction.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19) Mention what bigbang testing is?
-Big Bang Testing is a software testing approach where all or most of the modules or components of a software system are integrated simultaneously and tested as a whole. This approach is typically used when individual modules or components of the system have been developed and tested independently, and now they are ready to be integrated to form the complete system.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20) What is the purpose of exit criteria?
-Exit criteria in software testing define the conditions or criteria that must be met in order to complete a testing phase, release a software product, or proceed to the next phase of the software development lifecycle. These criteria serve several important purposes:
-1. Quality Assurance: Exit criteria ensure that the software has been thoroughly tested and meets predefined quality standards before it is released or promoted to the next stage. They help in validating that the software is ready for deployment or further development.
-2. Risk Management: Exit criteria help in managing project risks by providing clear guidelines on when testing activities can be concluded. They help teams assess and mitigate risks associated with software defects or issues that could impact deployment or user acceptance.
-3. Decision Making: Exit criteria provide a basis for making informed decisions about the readiness of the software. Stakeholders can use these criteria to evaluate whether the software meets business requirements, technical specifications, and user expectations before making decisions on release or continuation.
-4. Progress Tracking: Exit criteria serve as checkpoints during the testing process, allowing teams to track progress and ensure that testing objectives are being achieved. They provide transparency and accountability in testing activities.
-5. Continuous Improvement: By defining exit criteria, teams can identify areas for improvement in testing processes, methodologies, and quality standards. They enable retrospective analysis and lessons learned to enhance future testing efforts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21) When should "Regression Testing" be performed?
-Regression testing should be performed whenever there are changes made to the software application. The primary purpose of regression testing is to ensure that recent code changes or modifications have not adversely affected the existing functionality of the software. Here are specific scenarios when regression testing should be conducted:
-1. After Code Changes: Whenever new code is added, modified, or removed within the software application, regression testing should be performed to verify that these changes have not introduced new defects or caused unintended side effects.
-2. After Bug Fixes: Once defects or bugs have been fixed, regression testing ensures that the corrections have been implemented successfully without impacting other parts of the software.
-3. After System Upgrades: When there are updates or upgrades to the underlying system components, frameworks, libraries, or dependencies used by the software, regression testing ensures compatibility and functionality with the new environment.
-4. After Configuration Changes: Changes in configuration settings, database schema updates, or environment variables can potentially impact the software's behavior. Regression testing helps verify that these changes do not disrupt existing functionality.
-5. Periodically: Even in the absence of specific changes, regression testing should be performed periodically as part of ongoing maintenance to detect any unexpected regressions or deteriorations in software performance over time.
-6. Before Release: Prior to releasing a new version or update of the software to production or to end-users, comprehensive regression testing is essential to confirm that all previously working features and functionalities continue to operate as expected.
+1. Functional Defects: 
+2. Performance Defects: 
+3. Compatibility Defects: 
+4. Usability Defects:
+5. Security Defects: 
+6. Reliability Defects: 
+7. Interface Defects: 
+8. Documentation Defects:
+9. Regression Defects:
+10. Data Defects: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20) What is the purpose of exit criteria?
+1. Quality Assurance: 
+2. Risk Management: 
+3. Decision Making: 
+4. Progress Tracking:
+5. Continuous Improvement: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21) When should "Regression Testing" be performed?
+1. After Code Changes:
+2. After Bug Fixes: 
+3. After System Upgrades: 
+4. After Configuration Changes: 
+5. Periodically:
+6. Before Release: 
 </t>
   </si>
   <si>
     <t xml:space="preserve">22) What is 7 key principles? Explain in detail?
-The "7 key principles" you're referring to are likely related to software testing and are often associated with the International Software Testing Qualifications Board (ISTQB) Foundation Level certification syllabus. These principles provide foundational concepts and guidelines for effective software testing practices. Here are the 7 key principles of software testing explained in detail:
 1. Testing Shows Presence of Defects:
-   - Principle: Testing can never prove the absence of defects, but it can show that defects are present in the software.
-   - Explanation: Software testing is aimed at identifying defects or discrepancies between expected and actual outcomes. Test cases are designed to reveal defects, errors, or inconsistencies in the software under test. However, passing test cases do not guarantee defect-free software; they only indicate that no defects were found in those specific conditions.
 2. Exhaustive Testing is Impossible**:
-   - Principle: It is impossible to test all possible scenarios, inputs, and conditions within a software application.
-   - Explanation: Software systems are complex, with a vast number of possible inputs, interactions, and paths. Complete testing of all possible combinations and scenarios would require an impractical amount of time and resources. Therefore, testing efforts should be focused on high-risk areas, critical functionalities, and typical user interactions based on risk analysis and prioritization.
 3. Early Testing:
-   - Principle: Testing activities should start as early as possible in the software development lifecycle.
-   - Explanation: Early testing helps in identifying defects and issues when they are less costly to fix. Testing early can prevent defects from propagating into subsequent phases of development, reducing rework and overall project costs. It also facilitates early feedback, allowing for timely adjustments to requirements, design, and implementation.
 4. Defect Clustering:
-   -Principle: A small number of modules typically contain most of the defects discovered.
-   - Explanation: Empirical studies have shown that defects tend to cluster in specific modules or components of a software system. By focusing testing efforts on these high-risk areas and critical modules, testers can prioritize their activities to maximize defect detection and minimize potential impacts on the software's functionality and quality.
 5. Pesticide Paradox:
-   - Principle: Repeating the same tests over and over again will eventually cease to find new defects.
-   - Explanation: If the same set of tests is repeated without variation, it becomes less effective in finding new defects over time. To combat this, test cases should be regularly reviewed, updated, and supplemented with new tests to target different aspects of the software and expose previously undetected defects.
 6. Testing is Context Dependent:
-   - Principle: Testing approaches and techniques should be adapted based on the context of the project, including business objectives, technical environment, and stakeholder needs.
-   - Explanation: There is no one-size-fits-all approach to testing. The effectiveness of testing strategies depends on the specific context of the software project, such as its complexity, criticality, regulatory requirements, and development methodology. Testing should be tailored to address specific risks and challenges unique to each project.
 7. Absence-of-Errors Fallacy:
- Principle: Finding and fixing defects does not necessarily mean the software is ready for release.
-   Explanation: Even if all identified defects are fixed, it does not guarantee that the software is free of all potential issues or meets all user expectations. Testing should focus not only on finding defects but also on validating that the software meets its functional and non-functional requirements, performs reliably under expected conditions, and satisfies user needs and expectations.
-These 7 key principles provide a fundamental framework for understanding the goals, challenges, and best practices in software testing. They guide testers in planning, designing, executing, and evaluating testing activities to ensure the delivery of high-quality software products that meet business objectives and user requirements.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23) Difference between QA v/s QC v/s Tester
-The terms QA (Quality Assurance), QC (Quality Control), and Tester are often used in the context of software development and testing, but they represent distinct roles and activities within the overall process of ensuring software quality. Here’s a breakdown of the differences:
-Quality Assurance (QA):
-1. Definition: QA refers to the systematic process of ensuring that the software development process is designed, implemented, and executed in accordance with defined standards, procedures, and guidelines.
-2. Focus: QA focuses on preventing defects and issues by establishing processes, standards, and methodologies that promote quality throughout the software development lifecycle (SDLC).
-3. Responsibilities:
-   - Establishing quality standards, processes, and methodologies.
-   - Defining and implementing quality assurance activities and metrics.
-   - Conducting reviews, audits, and inspections to ensure compliance with standards.
-   - Identifying areas for process improvement and optimization.
-4. Goal: The primary goal of QA is to build quality into the software development process from the beginning to ensure that the final product meets quality standards, meets user requirements, and satisfies stakeholder expectations.
- Quality Control (QC):
-1. Definition: QC involves the activities and techniques used to verify and validate that the software product meets specified requirements and adheres to quality standards.
-2. Focus: QC focuses on identifying defects and issues through testing and inspection activities, aiming to detect and correct deviations from expected quality.
-3. Responsibilities:
-   - Planning, designing, and executing testing activities (functional and non-functional) to validate software functionality.
-   - Conducting reviews and inspections to identify defects, inconsistencies, and non-conformances.
-   - Performing static and dynamic testing to verify software behavior and performance.
-4. Goal: The main goal of QC is to ensure that defects and issues are identified and resolved before the software product is released to users, thereby improving the overall reliability, functionality, and usability of the software.
- Tester:
-1. Definition: A tester is an individual responsible for performing various testing activities to identify defects, verify functionality, and ensure the quality of the software product.
-2. Focus: Testers are directly involved in executing test cases, reporting defects, and validating software functionality against defined requirements and specifications.
-3. Responsibilities:
-   - Developing and executing test cases based on test plans and test strategies.
-   - Identifying, documenting, and prioritizing defects found during testing.
-   - Collaborating with developers, analysts, and stakeholders to understand requirements and ensure test coverage.
-   - Participating in test automation, performance testing, and regression testing activities.
-4. Skills and Expertise: Testers require a combination of technical skills (knowledge of testing tools, test automation, etc.) and domain-specific knowledge (understanding of business requirements, user expectations) to effectively carry out testing activities.
- Key Differences:
-- Focus: QA focuses on process improvement and prevention of defects, QC focuses on defect detection and correction, while testers execute testing activities and validate software functionality.
-- Scope: QA and QC are broader in scope, encompassing overall process management and quality verification, whereas testing is more specific to validating software behavior and performance.
-- Role and Responsibilities: QA and QC involve planning, designing, and implementing quality-related activities, while testers are primarily involved in executing tests, identifying defects, and ensuring software meets quality standards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23) Difference between QA v/s QC v/s Tester
 In summary, QA, QC, and testers play complementary roles in the software development lifecycle, each contributing to ensuring the delivery of high-quality software products. Effective collaboration and communication among QA, QC, and testing teams are essential for achieving software quality objectives and meeting user expectations.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24) Difference between Smoke and Sanity?
+Both smoke testing and sanity testing are essential in ensuring that software builds meet basic quality criteria and are ready for more intensive testing phases. They help streamline the testing process by quickly identifying critical issues and verifying recent changes, thus contributing to overall software quality and reliability.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25) Difference between verification and Validation
+Both verification and validation are essential components of quality assurance in software development, working together to ensure that software products are both correctly built and built correctly. Verification sets the foundation by confirming adherence to requirements, while validation ensures that the software meets user needs and performs as expected in its intended environment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26) Explain types of Performance testing.
+1. Load Testing:
+   - Purpose: Load testing is conducted to evaluate the application's behavior under normal and peak load conditions.
+2. Stress Testing:
+   - Purpose: Stress testing evaluates the application's behavior beyond normal load conditions to determine its breaking point or maximum capacity.
+3. Soak Testing (Endurance Testing):
+   - Purpose: Soak testing checks the application's performance over an extended period under sustained load conditions.
+4. Scalability Testing:
+   - Purpose: Scalability testing assesses how well the application scales in terms of handling increased user load and growing data volumes.
+5. Volume Testing:
+   - Purpose: Volume testing evaluates the application's performance when subjected to a large volume of data.
+6. Concurrency Testing:
+   - Purpose: Concurrency testing examines how the application performs when multiple users or transactions access the same resources simultaneously.
+7. Resilience Testing:
+   - Purpose: Resilience testing evaluates the application's ability to recover and continue operating after a failure or disruptive event.
+</t>
+  </si>
+  <si>
+    <t>27) What is Error, Defect, Bug and failure?
+Error: An error, also known as a mistake or fault, is a human action that produces an incorrect result or behavior in a software application.
+Defect: A defect, also known as a fault or issue, is an imperfection or flaw in the software application that may cause it to behave incorrectly, produce incorrect results, or behave unexpectedly under certain conditions.
+Bug: A bug is a colloquial term used interchangeably with defect or issue, referring to a problem in the software that causes it to malfunction or behave unexpectedly.
+Failure: A failure occurs when the software does not perform its intended function or does not produce the expected output under specific conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28) Difference between Priority and Severity 
+ Severity:
+- Definition: Severity refers to the impact of a defect or issue on the functionality of the software and its impact on the user experience.
+- Characteristic:
+  - Critical: The defect causes a complete loss of functionality or the software crashes.
+  - Major: The defect causes major functionality to fail, but the software does not crash.
+  -Moderate: The defect causes minor functionality issues or inconvenience to users.
+  - Minor: The defect is an aesthetic issue or a very minor inconvenience.
+ Priority:
+- Definition: Priority refers to the order in which defects should be fixed or addressed, based on business needs, customer requirements, and project constraints.  
+- Characteristics:
+  - High: The defect must be fixed as soon as possible because it affects critical functionality or is blocking further testing.
+  - Medium: The defect should be addressed soon but does not impact critical functionality or can be worked around.
+  - Low: The defect is minor and can be deferred to a later release or patch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29) What is Bug Life Cycle?
+The Bug Life Cycle, also known as the Defect Life Cycle, describes the stages through which a defect or bug typically progresses from identification to resolution in the software development process. It outlines the workflow and states that a bug goes through, involving various stakeholders such as testers, developers, and project managers. Here are the typical stages in the Bug Life Cycle:
+1. New: 
+2. Assigned:
+3. In Progress:
+4. Fixed:
+5. Verified:
+6. Closed:
+7. Reopened:
+Additional States (Depending on the Process):
+Deferred: 
+Duplicate:
+Cannot Reproduce
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30) Explain the difference between Functional testing and Non-Functional testing
+Key Differences:
+- Objective:
+  - Functional Testing: Ensures that the software functions correctly according to its requirements and specifications.
+  - Non-Functional Testing: Evaluates the performance, usability, reliability, and other quality attributes of the software.
+- What is Tested:
+  - Functional Testing: Tests the specific functions and features of the software application.
+  - Non-Functional Testing: Tests the characteristics of the software application under different conditions.
+- Focus:
+  - Functional Testing: Focuses on validating the behavior of the system based on input and output.
+  - Non-Functional Testing: Focuses on evaluating how well the system performs in terms of speed, responsiveness, stability, etc.
+- Types of Tests:
+  - Functional Testing: Includes tests like unit testing, integration testing, system testing, and acceptance testing.
+  - Non-Functional Testing: Includes tests like performance testing, load testing, usability testing, security testing, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33)Explain what Test Plan is? What isthe information that should be covered.
+Information Covered in a Test Plan:
+Introduction:-Purpose of the Test PlanScope of testing,Objectives
+Test Items:-Features to be tested,Features not to be tested,
+Test Approach:-Testing levels (unit, integration, system, etc.),Testing types (functional, performance, security, etc.)
+Test Environment:-Hardware and software requirements,Test data and test tools,
+Test Deliverables:-Test plans, test cases, test scripts,Test results and reports
+Schedule:-Testing milestones,Timelines for different testing phases
+Resources:-Personnel involved (roles and responsibilities),Required training and tools
+Risks and Contingencies:-Potential risks,Mitigation plans
+Criteria:Entry and exit criteria for testing phases,Suspension and resumption criteria
+Approval:Sign-off from stakeholders
+</t>
+  </si>
+  <si>
+    <t>31) What isthe difference between the STLC (Software Testing Life Cycle) and SDLC
+(Software Development Life Cycle)?
+The STLC (Software Testing Life Cycle) focuses on testing activities and processes to ensure software quality, while the SDLC (Software Development Life Cycle) covers the entire process of software creation, from planning and design to development, testing, deployment, and maintenance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32) What is the difference between test scenarios, test cases, and test script?
+Test Scenarios: High-level descriptions of what to test, covering various user paths and functionalities.
+Test Cases: Detailed steps and conditions to execute a test scenario, including inputs, actions, and expected results.
+Test Script: Automated scripts or code written to execute test cases automatically.
+</t>
+  </si>
+  <si>
+    <t>36)Bug categories are…
+Functional Bugs:
+Performance Bugs:
+Usability Bugs:
+Compatibility Bugs:
+Security Bugs:
+Logical Bugs:
+UI Bugs:
+Data Bugs:
+Documentation Bugs:
+Integration Bugs:
+Issues arising from interactions between different modules, systems, or third-party components.
+Example: Failure in API communication between two systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+37)Advantage of Bugzila .
+Open Source:
+Customizable:
+Efficient Bug Tracking:
+Open Source:
+Free to use and modify.
+Customizable:
+Efficient Bug Tracking:
+Integration:
+Robust Search:
+Email Notifications:
+Security:
+Reporting and Charting:
+Scalability:
+Localization:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the different Methodologies in Agile Development Model?
+1. Scrum:
+2. Kanban:
+3. Extreme Programming (XP):
+4. Lean:
+5. Crystal:
+6. Feature-Driven Development (FDD):
+7. Dynamic Systems Development Method (DSDM):
+8. Agile Unified Process (AUP):
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38)Explain the difference between Authorization and Authentication in Web testing.What are the common problems faced in Web testing?
+Authentication:
+  Definition: The process of verifying the identity of a user or system.
+  Purpose: Ensures that the user is who they claim to be.
+  Process: Typically involves credentials like usernames and passwords, biometrics, or tokens.
+  Example: Logging into a web application using a username and password.
+Authorization:
+  Definition: The process of determining if a user has the right to access certain resources or perform specific actions.
+  Purpose: Ensures that the authenticated user has permission to access the requested resources.
+  Process: Checks user roles, permissions, and access control policies.
+  Example: Verifying if a logged-in user can access the admin dashboard.
+</t>
+  </si>
+  <si>
+    <t>High-Level Requirements (HLRs) for WhatsApp Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Authentication </t>
+  </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>QR Code Generation</t>
+  </si>
+  <si>
+    <t>QR Code Expiry</t>
+  </si>
+  <si>
+    <t>Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Logout Functionality</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>The system must allow users to authenticate by scanning a QR code from their mobile app</t>
+  </si>
+  <si>
+    <t>The system must securely maintain the user's session across browser refreshes and navigation.</t>
+  </si>
+  <si>
+    <t>The system must generate a unique QR code for user authentication.</t>
+  </si>
+  <si>
+    <t>The system must ensure the QR code expires after a set time and generate a new one.</t>
+  </si>
+  <si>
+    <t>The system must display the login page correctly in different browsers (Chrome, Firefox, Edge, Safari).</t>
+  </si>
+  <si>
+    <t>The system must allow users to log out securely from the web session.</t>
+  </si>
+  <si>
+    <t>The system must provide appropriate error messages for invalid or expired QR codes.</t>
+  </si>
+  <si>
+    <t>Applicable Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Applicable Roles
+</t>
+  </si>
+  <si>
+    <t>Test Case for the FB and instagram login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the test cases for the login page of WhatsApp Web:</t>
+  </si>
+  <si>
+    <t>TestScenario Id</t>
+  </si>
+  <si>
+    <t>TestScenario Name</t>
+  </si>
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Testcase Name</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Expexted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>User Authentication and Login</t>
+  </si>
+  <si>
+    <t>Open WhatsApp Web Login Page</t>
+  </si>
+  <si>
+    <t>Open the browser and navigate to web.whatsapp.com</t>
+  </si>
+  <si>
+    <t>URL: web.whatsapp.com</t>
+  </si>
+  <si>
+    <t>The WhatsApp Web login page with a QR code is displayed</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>As per Expexted</t>
+  </si>
+  <si>
+    <t>Scan QR Code to Login</t>
+  </si>
+  <si>
+    <t>Invalid QR Code Scan</t>
+  </si>
+  <si>
+    <t>WhatsApp installed on the mobile device</t>
+  </si>
+  <si>
+    <t>1. Open WhatsApp Web in a browser 2. Open WhatsApp on the mobile 3. Scan the QR code</t>
+  </si>
+  <si>
+    <t>Mobile device with WhatsApp</t>
+  </si>
+  <si>
+    <t>Expired QR code</t>
+  </si>
+  <si>
+    <t>The user is successfully logged in, and the chat interface is displayed</t>
+  </si>
+  <si>
+    <t>The user receives an error message indicating that the QR code is invalid</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Open WhatsApp Web in different browsers (Chrome, Firefox, Edge, Safari)</t>
+  </si>
+  <si>
+    <t>1. Open WhatsApp Web in a browser 2. Wait for the QR code to expire</t>
+  </si>
+  <si>
+    <t>Session Persistence</t>
+  </si>
+  <si>
+    <t>Logout from WhatsApp Web</t>
+  </si>
+  <si>
+    <t>Multiple Device Login</t>
+  </si>
+  <si>
+    <t>Tc_1.8</t>
+  </si>
+  <si>
+    <t>User is logged into WhatsApp Web</t>
+  </si>
+  <si>
+    <t>WhatsApp installed on multiple mobile devices</t>
+  </si>
+  <si>
+    <t>1. Refresh the browser 2. Navigate to different pages and return to WhatsApp Web</t>
+  </si>
+  <si>
+    <t>1. Click on the menu icon 2. Select "Logout"</t>
+  </si>
+  <si>
+    <t>1. Open WhatsApp Web in a browser 2. Scan the QR code with multiple mobile devices</t>
+  </si>
+  <si>
+    <t>Different browsers</t>
+  </si>
+  <si>
+    <t>Time for QR code expiry</t>
+  </si>
+  <si>
+    <t>Multiple mobile devices with WhatsApp</t>
+  </si>
+  <si>
+    <t>The WhatsApp Web login page with a QR code is displayed correctly in each browser</t>
+  </si>
+  <si>
+    <t>The QR code expires after a set time, and a new QR code is generated</t>
+  </si>
+  <si>
+    <t>The user's session remains active, and they do not need to log in again</t>
+  </si>
+  <si>
+    <t>The user is logged out, and the login page with the QR code is displayed</t>
+  </si>
+  <si>
+    <t>Only one device can be logged in at a time, or the first device is logged out when the second device logs in</t>
+  </si>
+  <si>
+    <t>High-Level Requirements (HLRs) for Contact Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Contact Us Form</t>
+  </si>
+  <si>
+    <t>Contact Us Form</t>
+  </si>
+  <si>
+    <t>The form must contain the following fields:&lt;br&gt; - First Name (required)&lt;br&gt; - Last Name (required)&lt;br&gt; - Email (required, must be a valid email format)&lt;br&gt; - Subject (required)&lt;br&gt; - Comment or Message (required)</t>
+  </si>
+  <si>
+    <t>Each field must have validation:&lt;br&gt; - First Name, Last Name, Subject, Comment or Message fields should not be empty.&lt;br&gt; - Email field must be validated for proper email format (e.g., user@example.com).</t>
+  </si>
+  <si>
+    <t>When the "Submit" button is clicked:&lt;br&gt; - All fields must be validated.&lt;br&gt; - If validation passes, the form should be submitted successfully.&lt;br&gt; - If validation fails, appropriate error messages should be displayed.</t>
+  </si>
+  <si>
+    <t>Specific error messages should be shown for each validation failure (e.g., "First Name is required", "Email is invalid").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifye Contact Us Form </t>
+  </si>
+  <si>
+    <t>Tc_1.1</t>
+  </si>
+  <si>
+    <t>Tc_1.2</t>
+  </si>
+  <si>
+    <t>Tc_1.3</t>
+  </si>
+  <si>
+    <t>Tc_1.4</t>
+  </si>
+  <si>
+    <t>Tc_1.5</t>
+  </si>
+  <si>
+    <t>Validate all form fields are present</t>
+  </si>
+  <si>
+    <t>Validate form submission with all fields empty</t>
+  </si>
+  <si>
+    <t>Validate email field with invalid email format</t>
+  </si>
+  <si>
+    <t>Validate form submission with all fields filled correctly</t>
+  </si>
+  <si>
+    <t>Validate error messages for each individual field</t>
+  </si>
+  <si>
+    <t>Contact Us form is accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify the presence of First Name, Last Name, Email, Subject, Comment or Message fields, and the Submit button.</t>
+  </si>
+  <si>
+    <t>1. Open the Contact Us form.2. Click the Submit button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter an invalid email in the Email field </t>
+  </si>
+  <si>
+    <t>Fill in all required fields with valid data.</t>
+  </si>
+  <si>
+    <t>Leave one required field empty</t>
+  </si>
+  <si>
+    <t>All fields and the Submit button should be present.</t>
+  </si>
+  <si>
+    <t>Appropriate error messages should be displayed for all required fields.</t>
+  </si>
+  <si>
+    <t>Error message for invalid email format should be displayed</t>
+  </si>
+  <si>
+    <t>Form should be submitted successfully.</t>
+  </si>
+  <si>
+    <t>Specific error message should be displayed for the empty field each time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clicke of Submit Button </t>
+  </si>
+  <si>
+    <t>inter valuse</t>
+  </si>
+  <si>
+    <t>Tejas.com</t>
+  </si>
+  <si>
+    <t>inter valid data</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -593,7 +1114,7 @@
       <name val="Droid Sans"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,7 +1123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,18 +1146,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226D4F7-192C-438B-B2BE-4E37E9322E8F}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04453A08-0239-4A10-A9EA-68749395E77F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.109375" defaultRowHeight="14.4"/>
   <sheetData>
@@ -1058,11 +1595,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B362CCC7-AD68-4072-8A20-80B03936A585}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D126BAFA-3C60-4EF6-B5B6-FCCA4B673AAD}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1078,137 +1630,207 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="115.2">
+    <row r="2" spans="1:1" ht="72">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="100.8">
+    <row r="3" spans="1:1" ht="86.4">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="201.6">
+    <row r="4" spans="1:1" ht="172.8">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="201.6">
+    <row r="5" spans="1:1" ht="158.4">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="100.8">
+    <row r="6" spans="1:1" ht="72">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="86.4">
+    <row r="7" spans="1:1" ht="72">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="244.8">
+    <row r="8" spans="1:1" ht="216">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="259.2">
+    <row r="9" spans="1:1" ht="172.8">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="115.2">
+    <row r="10" spans="1:1" ht="86.4">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="115.2">
+    <row r="11" spans="1:1" ht="86.4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="100.8">
+    <row r="12" spans="1:1" ht="72">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="216">
+    <row r="13" spans="1:1" ht="158.4">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="115.2">
+    <row r="14" spans="1:1" ht="86.4">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="115.2">
+    <row r="15" spans="1:1" ht="86.4">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="115.2">
+    <row r="16" spans="1:1" ht="86.4">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="244.8">
+    <row r="17" spans="1:4" ht="216">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6">
+    <row r="18" spans="1:4" ht="244.8">
       <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="409.6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="273.60000000000002">
       <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="115.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="403.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="129.6">
       <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="158.4">
       <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="409.6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="158.4">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="86.4">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="86.4">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="72">
+      <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="345.6">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="129.6">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="273.60000000000002">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="244.8">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="302.39999999999998">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="72">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="86.4">
+      <c r="A33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="331.2">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="201.6">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="244.8">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="144">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="187.2">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3BBE85-A9C1-468F-9171-963C3BE4D7B5}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1225,25 +1847,25 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="55.2">
-      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="41.4">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
@@ -1252,88 +1874,907 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="43.2">
-      <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BE5E3D-3A27-411C-A25D-76BD36883A1C}">
+  <dimension ref="A3:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="95.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" customWidth="1"/>
+    <col min="8" max="8" width="86.44140625" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F2C0D-C47C-4A84-A92B-315E9C8E0AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28285BE4-F501-493E-B85F-60ACDEBF4D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{BBE60B73-6EA2-43C1-AE95-E40092F20ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Module–1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Module–2" sheetId="3" r:id="rId4"/>
     <sheet name="HLR" sheetId="7" r:id="rId5"/>
     <sheet name="TestCase" sheetId="8" r:id="rId6"/>
+    <sheet name="Module_3" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="240">
   <si>
     <t xml:space="preserve"> What is software testing? 
 Testing is the process of evaluating a system or its 
@@ -1074,6 +1075,181 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 3 (Testing on Live Application) 
+1) What is RDBMS 
+RDBMS (Relational Database Management System) is a system for managing data stored in structured tables, where data is organized in rows and columns. 
+It supports SQL for data manipulation and ensures data integrity through relationships defined by keys (e.g., primary and foreign keys). 
+RDBMS also adheres to ACID properties to maintain reliable transactions.
+2)What is SQL 
+SQL (Structured Query Language) is a standard programming language used for managing and manipulating relational databases.
+ It allows users to create, read, update, and delete data in a database.
+3)Write SQL Commands
+1. Create a Table
+2. Insert Data into a Table
+3. Select Data from a Table
+4. Update Data in a Table
+5. Delete Data from a Table
+6. Alter a Table (Add a Column)
+7. Drop a Table
+4) What is join? 
+A JOIN in SQL is a clause used to combine rows from two or more tables based on a related column between them.
+ It allows you to retrieve data that spans multiple tables, which is essential when your data is normalized and spread across various tables.
+5) types of joins 
+1)INNER JOIN
+2)LEFT JOIN (LEFT OUTER JOIN)
+3)RIGHT JOIN (RIGHT OUTER JOIN)
+4)FULL JOIN (FULL OUTER JOIN)
+5)CROSS JOIN
+6)SELF JOIN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) How Many constraint and describes it self </t>
+  </si>
+  <si>
+    <t>1. PRIMARY KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Uniquely identifies each record in a table. A table can have only one primary key, </t>
+  </si>
+  <si>
+    <t>which can consist of a single column or multiple columns (composite key). Primary keys do not allow NULL values.</t>
+  </si>
+  <si>
+    <t>2. FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>Description: Ensures the referential integrity of the data in one table by linking it to the primary key in another table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A foreign key in one table points to a primary key in another table.</t>
+  </si>
+  <si>
+    <t>3. UNIQUE</t>
+  </si>
+  <si>
+    <t>Description: Ensures that all values in a column or a set of columns are unique across the database table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unlike the primary key, a table can have multiple unique constraints.</t>
+  </si>
+  <si>
+    <t>4. NOT NULL</t>
+  </si>
+  <si>
+    <t>Description: Ensures that a column cannot have a NULL value. This is important for columns where data is mandatory.</t>
+  </si>
+  <si>
+    <t>5. CHECK</t>
+  </si>
+  <si>
+    <t>Description: Ensures that all values in a column satisfy a specific condition. It’s used to limit the values that can be inserted into a column.</t>
+  </si>
+  <si>
+    <t>6. DEFAULT</t>
+  </si>
+  <si>
+    <t>Description: Sets a default value for a column if no value is specified when inserting a record.</t>
+  </si>
+  <si>
+    <t>7. INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Although not a direct constraint, an index is often associated with constraints to improve </t>
+  </si>
+  <si>
+    <t>the speed of operations on a table. Indexes can be created on a column or a combination of columns to enhance query performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7)Difference between RDBMS vs DBMS
+1. Data Structure
+DBMS: Data is typically stored as files. It can be hierarchical, network, or navigational in structure.
+RDBMS: Data is stored in a tabular form, organized into rows and columns (tables). The structure is based on a relational model.
+2. Relationships Between Data
+DBMS: Does not inherently support relationships between data. Relationships must be managed manually in the application code.
+RDBMS: Supports relationships between tables using foreign keys. These relationships are integral to the system.
+3. Normalization
+DBMS: Data normalization is less emphasized, often leading to data redundancy.
+RDBMS: Data normalization is a key feature to reduce redundancy and ensure data integrity.
+4. Data Integrity
+DBMS: Data integrity constraints are not a primary focus, and enforcing them is more difficult.
+RDBMS: Enforces data integrity constraints like primary keys, foreign keys, unique keys, and checks.
+5. Query Language
+DBMS: Often lacks a standardized query language; interactions with the database are typically handled through custom application code.
+RDBMS: Uses Structured Query Language (SQL) as the standard language for querying and managing the database.
+6. ACID Compliance
+DBMS: Does not fully adhere to ACID (Atomicity, Consistency, Isolation, Durability) properties, which are crucial for reliable transactions.
+RDBMS: Strictly adheres to ACID properties, ensuring reliable and consistent transactions.
+7. Scalability
+DBMS: Typically suitable for smaller-scale applications and simpler database management tasks.
+RDBMS: Designed for more complex and large-scale applications, capable of handling significant amounts of data and complex queries.
+8. Examples
+DBMS: Microsoft Access, FileMaker, dBASE.
+RDBMS: MySQL, Oracle, PostgreSQL, Microsoft SQL Server.
+9. Support for Distributed Databases
+DBMS: Generally does not support distributed databases.
+RDBMS: Often supports distributed databases, allowing data to be spread across multiple locations.
+10. Data Redundancy
+DBMS: Higher chances of data redundancy due to lack of normalization.
+RDBMS: Reduces data redundancy through normalization techniques.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8)What is API Testing
+API Testing is a type of software testing that focuses on verifying that an application programming interface (API)
+ meets its expected functionality, performance, and reliability. APIs allow different software systems to 
+communicate with each other, and API testing ensures that these interactions occur correctly.
+9)Types of API Testing 
+1. Functional Testing
+2. Performance Testing
+3. Security Testing
+4. Reliability Testing
+5. Compatibility Testing
+6. Usability Testing
+7. Integration Testing
+8. Error Handling Testing
+9. Data Integrity Testing
+10)What is Responsive Testing? 
+Responsive Testing refers to the process of evaluating how well a web application or website adapts to various 
+screen sizes and devices. The goal is to ensure that the user interface (UI) and user experience (UX) are optimized 
+and functional across different platforms, including desktops, tablets, and smartphones.
+11)Which types of tools are available for Responsive Testing
+1. Browser Developer Tools
+2. Responsive Design Testing Tools
+3. Online Responsive Testing Tools
+4. Emulators and Simulators
+5. Automated Testing Frameworks
+6. Design and Prototyping Tools
+7. Screen Size Testers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12)What is the full form of .ipa, .apk
+.ipa: iOS App Store Package
+Description: This file format is used for iOS applications. An IPA file is essentially a package that contains the app’s
+ executable and all related resources, such as images and configuration files. It is used for distributing apps on iOS devices via the App Store or through other means like ad-hoc distribution.
+.apk: Android Package Kit
+Description: This file format is used for Android applications. An APK file is a package that contains all the
+necessary components for an Android app, including the app’s code, resources, and manifest file. It is used to distribute and install apps on Android devices.
+13)How to create step for to open the developer option mode ON?
+1)Open Settings:
+2)Navigate to About Phone:
+3)Find Build Number:
+4)Tap on Build Number:
+5)Developer Options Enabled:
+6)Access Developer Options:
+7)Turn On Developer Options:
+8)Tap on Developer options and toggle the switch to ON.
+14)To check 
+1)Steps to Check Developer Options:
+2)Open Settings:
+3)Navigate to Developer Options:
+4)Check if Developer Options is Enabled:
+5)Verify Settings:
+6)Turn Off Developer Options (If Needed):
+</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BE5E3D-3A27-411C-A25D-76BD36883A1C}">
   <dimension ref="A3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+    <sheetView topLeftCell="F8" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -2777,4 +2953,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4286E8-35A3-4660-8079-542209705CA8}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="195.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="409.6">
+      <c r="A21" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="409.6">
+      <c r="A22" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="409.6">
+      <c r="A23" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>